--- a/output/fit_clients/fit_round_108.xlsx
+++ b/output/fit_clients/fit_round_108.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2252253206.571871</v>
+        <v>1623203330.79468</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1017094388959422</v>
+        <v>0.08823322251590843</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04446631433229899</v>
+        <v>0.0433569428017719</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1126126632.786591</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1862224678.62534</v>
+        <v>1747236173.732083</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1605239181222307</v>
+        <v>0.1290188078507788</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04143504467384504</v>
+        <v>0.03126721924360633</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>931112357.9734008</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3483686533.99657</v>
+        <v>3481137763.909958</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1242950125579069</v>
+        <v>0.1276982083769122</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02978474797411436</v>
+        <v>0.03062834766765203</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>39</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1741843244.534477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2739166593.812016</v>
+        <v>2881438079.806094</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08745222724961008</v>
+        <v>0.07498430527648889</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04224592108154021</v>
+        <v>0.03960473758878173</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>45</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1369583383.945606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2456440050.472844</v>
+        <v>2843188494.711025</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1431929325774718</v>
+        <v>0.09999658352360608</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05588278695783414</v>
+        <v>0.0561043860127047</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>18</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1228220005.37659</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3152735147.344062</v>
+        <v>3048557564.913235</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08378038662204752</v>
+        <v>0.07184725738311393</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04847821572993941</v>
+        <v>0.0365954091571277</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>33</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1576367523.810095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3175732520.505475</v>
+        <v>2965176460.331449</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1866298094397595</v>
+        <v>0.2006107935448024</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02317749260622163</v>
+        <v>0.03043266138849723</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>35</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1587866335.6642</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1541460985.261379</v>
+        <v>1920797651.73288</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1502695941674204</v>
+        <v>0.1429854015831983</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02941091826764808</v>
+        <v>0.03492281883115962</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>770730582.8112134</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5783472884.344436</v>
+        <v>3579384773.591673</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1393410066496314</v>
+        <v>0.1868257940067966</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03741695451236068</v>
+        <v>0.04566979332464609</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>46</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2891736602.075801</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3085358051.046909</v>
+        <v>4015387423.284486</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1355292141066089</v>
+        <v>0.1396317014830538</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04446270200900138</v>
+        <v>0.04979742488356161</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>45</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1542678974.391122</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2090767329.725265</v>
+        <v>2376316624.59452</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1204011454573354</v>
+        <v>0.1306118470883865</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04905487066057288</v>
+        <v>0.03924106018175042</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>38</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1045383599.561474</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4788084457.257313</v>
+        <v>3568387767.295378</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07258912718008159</v>
+        <v>0.09319313587797284</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02707820481791141</v>
+        <v>0.02621553517478209</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>36</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2394042243.464145</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2565654887.396908</v>
+        <v>2555853927.574577</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1717293097133407</v>
+        <v>0.1199578363678496</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03747244793291597</v>
+        <v>0.03530833102772774</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>35</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1282827509.49789</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1109934092.402125</v>
+        <v>1476294734.872994</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09738921241818363</v>
+        <v>0.06730982571802042</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03837224531005771</v>
+        <v>0.04193478408709531</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>554967043.212316</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1893539830.732924</v>
+        <v>1780350796.168353</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07583630973657331</v>
+        <v>0.09615404661057497</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04392831885841644</v>
+        <v>0.04120984604672519</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>15</v>
-      </c>
-      <c r="J16" t="n">
-        <v>946770000.3125608</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5098466639.14471</v>
+        <v>5323734301.850204</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1587193885900371</v>
+        <v>0.1446877344519691</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04192598762871257</v>
+        <v>0.03980383269779886</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>32</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2549233299.762218</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2612290522.491381</v>
+        <v>2898396149.87293</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1654105629899451</v>
+        <v>0.1195281747082748</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03176649574467585</v>
+        <v>0.02762201045294179</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>36</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1306145319.509732</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1163872394.219024</v>
+        <v>860618106.4311638</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1474875335053476</v>
+        <v>0.1403584937445862</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02477673400871488</v>
+        <v>0.02317697996070739</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>581936266.2057396</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2415001666.602792</v>
+        <v>2218172015.660177</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1352453438753486</v>
+        <v>0.1147303712700738</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02075270020435227</v>
+        <v>0.02229601701453618</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>13</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1207500815.386504</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2098096457.25601</v>
+        <v>1929726837.383484</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08625256129890616</v>
+        <v>0.09800472399711822</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03400951910787344</v>
+        <v>0.03708963216647967</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>10</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1049048255.102448</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2955773209.490367</v>
+        <v>3620131349.279707</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09335739108354971</v>
+        <v>0.1131814954174202</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03669212940584379</v>
+        <v>0.04090036158212033</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>30</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1477886668.864195</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1220669598.193087</v>
+        <v>1554932369.343961</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1740105503094322</v>
+        <v>0.1538307339019247</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0431705324770263</v>
+        <v>0.03848853796413633</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>610334832.0410645</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4126813451.168474</v>
+        <v>2836733645.453644</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1293932489907646</v>
+        <v>0.118836089540932</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02754095621584116</v>
+        <v>0.03306563664645466</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>32</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2063406684.991743</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>949136161.7101363</v>
+        <v>928853209.7674087</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1018727680045678</v>
+        <v>0.1103892960129353</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02826356052710401</v>
+        <v>0.02331034508976706</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>474568156.480324</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1276707390.263008</v>
+        <v>1395106485.971877</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08007460071167273</v>
+        <v>0.1145797033461484</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03425963214350514</v>
+        <v>0.02535884732283235</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>638353734.9233146</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3796719927.482649</v>
+        <v>3015045932.307895</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1045002245136189</v>
+        <v>0.104044303992657</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01814225060851478</v>
+        <v>0.01853116285490371</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>26</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1898359983.928416</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3050142270.577451</v>
+        <v>3532587083.468904</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1363176652538909</v>
+        <v>0.1470097792142095</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03190981121611026</v>
+        <v>0.04970799844468277</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>35</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1525071150.787142</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4693980247.200749</v>
+        <v>5527398422.600406</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1516865177844485</v>
+        <v>0.1011356310777902</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04241950904264961</v>
+        <v>0.03864130145871156</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>51</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2346990092.281667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2096464175.70333</v>
+        <v>2127142643.605356</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1046172388834312</v>
+        <v>0.1201651619555649</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03889530329014965</v>
+        <v>0.03366100530766231</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1048232136.267381</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1151011329.255977</v>
+        <v>1161831897.079417</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08999814938376659</v>
+        <v>0.08996188614055188</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03439743601656513</v>
+        <v>0.03768757700850303</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>575505627.5602742</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1894973403.713378</v>
+        <v>1883243059.613313</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08996621252988098</v>
+        <v>0.1082418724805666</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03539088275582754</v>
+        <v>0.0289680047349963</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>947486851.940363</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2540640808.045445</v>
+        <v>2576249898.731805</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1609331908546254</v>
+        <v>0.1458024873709158</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04033597509503428</v>
+        <v>0.04490939838260332</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>31</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1270320438.703928</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1128694502.93341</v>
+        <v>1383389030.910018</v>
       </c>
       <c r="F34" t="n">
-        <v>0.117189577096711</v>
+        <v>0.1084062593661739</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02480071100164041</v>
+        <v>0.01760861506849899</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>564347268.1374631</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1116685840.789219</v>
+        <v>1223148804.070976</v>
       </c>
       <c r="F35" t="n">
-        <v>0.111614053890877</v>
+        <v>0.1154438408620191</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0353790224562455</v>
+        <v>0.04045527537782841</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>558342913.3270228</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3068625582.424177</v>
+        <v>2313090241.017715</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1206514024417905</v>
+        <v>0.1256399642450305</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02188669416056365</v>
+        <v>0.02662259732029011</v>
       </c>
       <c r="H36" t="b">
         <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>28</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1534312767.560847</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2546155694.426125</v>
+        <v>2778794311.223401</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09082607629032083</v>
+        <v>0.07967004475297934</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03889538216804374</v>
+        <v>0.03885305722609036</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>29</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1273077949.556146</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1485311767.574567</v>
+        <v>1408117025.536762</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0828260767747724</v>
+        <v>0.08623548910713996</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03709355393022667</v>
+        <v>0.03721918990419258</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>742655935.0567944</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2138362842.192761</v>
+        <v>1972481718.202359</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1424617951294371</v>
+        <v>0.1658798766801425</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0236979021586721</v>
+        <v>0.02449078310077602</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1069181394.580333</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1612342713.28441</v>
+        <v>1559708040.455037</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1613975961937788</v>
+        <v>0.1598727508938645</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04173466508492679</v>
+        <v>0.04145100267597947</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>806171294.6561452</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2849973048.206228</v>
+        <v>1809161901.272319</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1571155395450347</v>
+        <v>0.1305409465956804</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03014844260422442</v>
+        <v>0.03742345886411166</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>25</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1424986515.039425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3762768871.754192</v>
+        <v>3388820175.74947</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1049478692269381</v>
+        <v>0.07987543177237848</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03066235533588031</v>
+        <v>0.0442115029452303</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>37</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1881384448.758122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2577069932.231755</v>
+        <v>2532040632.118198</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2014152228511914</v>
+        <v>0.1965811799586212</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01911913262776328</v>
+        <v>0.02391869435696482</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>34</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1288535006.974702</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1671791917.712979</v>
+        <v>2255208224.378019</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09090971277311231</v>
+        <v>0.08040994433443656</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03547840797032465</v>
+        <v>0.03648363053217699</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>835895999.6429169</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1609104612.956965</v>
+        <v>2377163484.666422</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1707184420210795</v>
+        <v>0.13017162005067</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04906557180627988</v>
+        <v>0.03601113288665441</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>804552257.9259821</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3845900360.951336</v>
+        <v>4252885194.603695</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1573649112580437</v>
+        <v>0.1134011513931231</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05957728470664778</v>
+        <v>0.04368583948595448</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>39</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1922950141.140689</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4784790627.306627</v>
+        <v>4308872472.914371</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1880955195833339</v>
+        <v>0.1398160656846678</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05156555698494109</v>
+        <v>0.03943752493799479</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>29</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2392395357.225404</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4061881538.224047</v>
+        <v>3275274467.530643</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1078555792592527</v>
+        <v>0.07631387026908625</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03417113287130615</v>
+        <v>0.03773612177740715</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>37</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2030940799.848475</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1890022082.462843</v>
+        <v>1599551317.375987</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1602382622031535</v>
+        <v>0.1596403484075219</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03503412307162215</v>
+        <v>0.04054100751273535</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>945011012.5479769</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3224203891.4644</v>
+        <v>3107832179.223162</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1440370684940523</v>
+        <v>0.1549164385154128</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04861137551282761</v>
+        <v>0.04433540201154908</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>37</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1612101989.563788</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1485550155.213771</v>
+        <v>1144774044.735128</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1496298590388307</v>
+        <v>0.1341666167443591</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05064496670737413</v>
+        <v>0.04013333883889547</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>742775082.8368493</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3566976273.405914</v>
+        <v>3627362946.349504</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1335295619695345</v>
+        <v>0.1149639504110991</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04716159835332133</v>
+        <v>0.06176648617075473</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>45</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1783488218.607419</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2688799368.781923</v>
+        <v>3384157053.715245</v>
       </c>
       <c r="F53" t="n">
-        <v>0.138462762321066</v>
+        <v>0.1470698782224608</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02879557861197</v>
+        <v>0.02683169106896758</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>31</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1344399738.216321</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4198410153.792151</v>
+        <v>3895827135.386092</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1394143427812292</v>
+        <v>0.1426844890117662</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04145902468731961</v>
+        <v>0.04176594471219262</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>35</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2099205156.496805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3908454679.918056</v>
+        <v>3028977254.848205</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1823684536709575</v>
+        <v>0.1849873267393315</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03084722616663182</v>
+        <v>0.0305002108246492</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>29</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1954227310.76489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1581267994.87036</v>
+        <v>1498188738.520042</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1408851876489097</v>
+        <v>0.116348049646336</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0405477615626675</v>
+        <v>0.04449466971201917</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>790634027.6028246</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3869011594.507478</v>
+        <v>4237168568.347473</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1460979010415708</v>
+        <v>0.1799280290865643</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02662687943796732</v>
+        <v>0.0205959729226092</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>34</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1934505874.560396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1619249884.574711</v>
+        <v>1205570839.545015</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1480734869415745</v>
+        <v>0.1307513086194877</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03087216506309096</v>
+        <v>0.03849199339461289</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>809624962.4800435</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4118722929.337674</v>
+        <v>4578335999.473602</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1070674705228974</v>
+        <v>0.1283817389300371</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04386304953031848</v>
+        <v>0.0381829237837027</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>30</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2059361434.840952</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2279853641.459702</v>
+        <v>3076189098.348602</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1711904953363978</v>
+        <v>0.1900238396586679</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02632412858511476</v>
+        <v>0.03207380534336057</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>34</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1139926815.499396</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2467831274.836825</v>
+        <v>2338413886.245878</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1718878925588151</v>
+        <v>0.1483112116386359</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03203447547406008</v>
+        <v>0.02261916694901229</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>37</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1233915668.009689</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1282003294.843292</v>
+        <v>1627366037.840816</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1857295924547021</v>
+        <v>0.1776490438647778</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04410154776739938</v>
+        <v>0.03682418970286665</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>641001597.702443</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4634709268.795459</v>
+        <v>3840172863.786653</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09855014664443623</v>
+        <v>0.08114618561235849</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04072237967156556</v>
+        <v>0.0325183307037023</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>31</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2317354668.413273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4628031550.72476</v>
+        <v>4646253352.727419</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1531298681381578</v>
+        <v>0.1441110823029668</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02366976467951452</v>
+        <v>0.02947218066423191</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>34</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2314015855.340735</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4580003777.930846</v>
+        <v>4668907437.248766</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1054320756397376</v>
+        <v>0.1180253722333316</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0309949286768204</v>
+        <v>0.02590273467511833</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>39</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2290001872.877501</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3537112236.845397</v>
+        <v>4965665534.736696</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1478757116837283</v>
+        <v>0.09863577828021519</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03162271504094413</v>
+        <v>0.03940903299196868</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>31</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1768556067.115445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2730424800.202666</v>
+        <v>2546573335.120695</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1004678484811097</v>
+        <v>0.07231171989446139</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04231169364826107</v>
+        <v>0.03287451433203234</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>35</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1365212441.143527</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5535409581.516222</v>
+        <v>3931122972.743369</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1000845056391021</v>
+        <v>0.1563774107789127</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03320437084170525</v>
+        <v>0.03281077125207992</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>34</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2767704879.52056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1587574780.773306</v>
+        <v>2077008722.166513</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1182675518173549</v>
+        <v>0.1201767719666336</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04572999885289287</v>
+        <v>0.04431104483374623</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>793787341.935016</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3138334804.309539</v>
+        <v>3148719681.291544</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08558939986203232</v>
+        <v>0.07473941534533925</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04104282931863953</v>
+        <v>0.04640612700272947</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>31</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1569167388.09031</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4568509323.703355</v>
+        <v>5215220373.356914</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1318852140866325</v>
+        <v>0.1267689192926219</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02982638557053935</v>
+        <v>0.02146927485248345</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>39</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2284254735.271255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1552918561.728698</v>
+        <v>1605529199.612822</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07371316042835034</v>
+        <v>0.07379551705763492</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04754322572527863</v>
+        <v>0.03366126876117466</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>776459299.2756079</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3543341393.732908</v>
+        <v>3449070055.046098</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08325491112376211</v>
+        <v>0.07842177590897349</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03805236537901966</v>
+        <v>0.04633687472112698</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>42</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1771670643.061275</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3718955487.031197</v>
+        <v>2595810608.824922</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1188974700858092</v>
+        <v>0.1365441227523605</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03261094399760209</v>
+        <v>0.02483082675767778</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>37</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1859477746.721813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2121608702.115283</v>
+        <v>1681847110.172569</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1239052965249091</v>
+        <v>0.1490994129560568</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03743647963291844</v>
+        <v>0.02284379317772793</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1060804303.730168</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4494974265.840224</v>
+        <v>4425068979.641899</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07668343956700056</v>
+        <v>0.1002136920785362</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02285266362438665</v>
+        <v>0.02170196859969794</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>24</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2247487138.302394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1652998955.968483</v>
+        <v>1538177113.386804</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1199608440251446</v>
+        <v>0.1586019652447596</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02256837344302377</v>
+        <v>0.02662222875526729</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>826499488.232185</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4452983575.616176</v>
+        <v>4589128132.518997</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1125328262763113</v>
+        <v>0.1181223976852776</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04948405637106994</v>
+        <v>0.04934081353596459</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>38</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2226491721.02974</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1600591908.605577</v>
+        <v>1203826483.033467</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1585004071805969</v>
+        <v>0.1698768281131801</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02490188925288161</v>
+        <v>0.03946539340580865</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>800296006.0494249</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3666507663.303279</v>
+        <v>4512016763.717011</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06767992416080872</v>
+        <v>0.08910947242184465</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02720983287707922</v>
+        <v>0.02563012164556974</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>23</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1833253814.488807</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3243990053.433983</v>
+        <v>5162671235.870831</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1268771642651621</v>
+        <v>0.1217097822647916</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02182282538963192</v>
+        <v>0.02311868448463009</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>24</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1621994961.790583</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5648358090.135358</v>
+        <v>5132343111.721864</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2105920775761273</v>
+        <v>0.1594939875729411</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02345868769713887</v>
+        <v>0.02610933875319905</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>39</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2824178992.779229</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1852666302.716804</v>
+        <v>2454055803.78276</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1160517121282482</v>
+        <v>0.1349434912416769</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02862258896819181</v>
+        <v>0.04052162948181545</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>926333118.2909416</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1805412208.09336</v>
+        <v>1904113145.487096</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1209468076728765</v>
+        <v>0.09310323587867815</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03986384568618457</v>
+        <v>0.03213635893152287</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
         <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>902706137.4744172</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3516489216.791417</v>
+        <v>3138281418.59003</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1553979848302203</v>
+        <v>0.1235503883821503</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04726656752629797</v>
+        <v>0.04397293775568641</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>38</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1758244725.492487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2621830423.199224</v>
+        <v>1804964302.740509</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1463889721606322</v>
+        <v>0.1365702183862501</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0253193061403575</v>
+        <v>0.02522209075058032</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>11</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1310915325.642566</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1373289892.669007</v>
+        <v>1146192930.543256</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1781467260362336</v>
+        <v>0.1288759094249489</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03601180270863086</v>
+        <v>0.044087824829056</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>686645046.2796941</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2878468403.294046</v>
+        <v>2960958615.352421</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1122637385279127</v>
+        <v>0.1366356645928329</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03600475399251007</v>
+        <v>0.03361338657116503</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>43</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1439234220.015609</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3470693415.203301</v>
+        <v>3127923299.999457</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1188067399040481</v>
+        <v>0.1478095190628758</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03030512859751617</v>
+        <v>0.03541067257485779</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>37</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1735346711.152894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1828379640.370902</v>
+        <v>2095744858.92967</v>
       </c>
       <c r="F90" t="n">
-        <v>0.116836378315807</v>
+        <v>0.1077320969160456</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03698766756347796</v>
+        <v>0.04828911548653851</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>914189858.988822</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1354390208.632069</v>
+        <v>1715769572.253271</v>
       </c>
       <c r="F91" t="n">
-        <v>0.14568625754663</v>
+        <v>0.1481353778316475</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05063446980820963</v>
+        <v>0.04091709701097695</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>677195162.5806187</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>3002468007.353452</v>
+        <v>1838803753.189031</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1078741443075821</v>
+        <v>0.07384543021070183</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03688730381666688</v>
+        <v>0.04286403653114753</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>23</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1501234025.531594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3983471329.162507</v>
+        <v>3166457483.846465</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1364909614013093</v>
+        <v>0.123706322309338</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03854435134092538</v>
+        <v>0.05433010119155701</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>32</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1991735666.18548</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1717078812.755325</v>
+        <v>1946436017.145552</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1652774505363813</v>
+        <v>0.1091759000166715</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02829352772826679</v>
+        <v>0.04170830164423975</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>858539367.8271773</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2149413546.806968</v>
+        <v>2840180620.519287</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09038601858014536</v>
+        <v>0.120042503746958</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03800619589041596</v>
+        <v>0.04682067848944256</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>26</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1074706834.916022</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1633427046.458852</v>
+        <v>2262653438.258673</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1291640465845891</v>
+        <v>0.101650309678862</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03893346723471802</v>
+        <v>0.04372766758390157</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>816713549.2918978</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4109400218.064047</v>
+        <v>4257214086.644017</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1124013472612324</v>
+        <v>0.1386550168708496</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02356180216301957</v>
+        <v>0.02050407691103147</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>35</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2054700174.148178</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3194449266.167501</v>
+        <v>3885644425.198633</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1142289505350356</v>
+        <v>0.1056211310309516</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02552172475531182</v>
+        <v>0.01978362175946544</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>29</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1597224630.903337</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2783350963.328813</v>
+        <v>2946835270.745677</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1243596268376812</v>
+        <v>0.111962979197698</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02958397445642996</v>
+        <v>0.02446437071392489</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>34</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1391675451.848113</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4128661489.854084</v>
+        <v>3998416117.970645</v>
       </c>
       <c r="F100" t="n">
-        <v>0.131598345460056</v>
+        <v>0.1460154182518223</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02412527470735812</v>
+        <v>0.01796467021988176</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>33</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2064330825.812388</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3495826563.536856</v>
+        <v>2179467545.585077</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2054225745821698</v>
+        <v>0.2028749685986846</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03711707764635826</v>
+        <v>0.04215454162916361</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>45</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1747913436.322298</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_108.xlsx
+++ b/output/fit_clients/fit_round_108.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1623203330.79468</v>
+        <v>1859082996.228596</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08823322251590843</v>
+        <v>0.0944445668856186</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0433569428017719</v>
+        <v>0.03928583152401635</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1747236173.732083</v>
+        <v>2371372713.40945</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1290188078507788</v>
+        <v>0.1242806360678069</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03126721924360633</v>
+        <v>0.04756978179513412</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3481137763.909958</v>
+        <v>5199211808.89794</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1276982083769122</v>
+        <v>0.102163917634091</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03062834766765203</v>
+        <v>0.03607161350583655</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2881438079.806094</v>
+        <v>3721340003.953233</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07498430527648889</v>
+        <v>0.09131249231886014</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03960473758878173</v>
+        <v>0.03165056733294102</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2843188494.711025</v>
+        <v>2003976378.128891</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09999658352360608</v>
+        <v>0.1081639568356701</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0561043860127047</v>
+        <v>0.03962056469879384</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3048557564.913235</v>
+        <v>2198923421.499374</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07184725738311393</v>
+        <v>0.08331266163087793</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0365954091571277</v>
+        <v>0.04053451211326699</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2965176460.331449</v>
+        <v>3199190542.296073</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2006107935448024</v>
+        <v>0.1784355962147196</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03043266138849723</v>
+        <v>0.03048475478519582</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1920797651.73288</v>
+        <v>2035961375.029123</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1429854015831983</v>
+        <v>0.1748324133573039</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03492281883115962</v>
+        <v>0.02735057443320085</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3579384773.591673</v>
+        <v>4374408069.641069</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1868257940067966</v>
+        <v>0.1582238972301061</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04566979332464609</v>
+        <v>0.04033068883604193</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4015387423.284486</v>
+        <v>3250015821.648543</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1396317014830538</v>
+        <v>0.1315466648898867</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04979742488356161</v>
+        <v>0.03840911029423474</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2376316624.59452</v>
+        <v>2211567917.80206</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1306118470883865</v>
+        <v>0.1291123602191311</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03924106018175042</v>
+        <v>0.03642962449330073</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3568387767.295378</v>
+        <v>3578623513.251341</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09319313587797284</v>
+        <v>0.09490697484399224</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02621553517478209</v>
+        <v>0.02938107824898392</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -822,16 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2555853927.574577</v>
+        <v>2579215747.340794</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1199578363678496</v>
+        <v>0.1830776260126945</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03530833102772774</v>
+        <v>0.0356051412349976</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1476294734.872994</v>
+        <v>1615406771.717229</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06730982571802042</v>
+        <v>0.1062699843294311</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04193478408709531</v>
+        <v>0.04339003679303073</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1780350796.168353</v>
+        <v>2360592027.117216</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09615404661057497</v>
+        <v>0.08551399805564815</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04120984604672519</v>
+        <v>0.05084752267174541</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5323734301.850204</v>
+        <v>5029803395.748918</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1446877344519691</v>
+        <v>0.1244797989893497</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03980383269779886</v>
+        <v>0.0409952557006468</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2898396149.87293</v>
+        <v>2762481792.912758</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1195281747082748</v>
+        <v>0.1283374098279898</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02762201045294179</v>
+        <v>0.0326085075560423</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>860618106.4311638</v>
+        <v>1155681758.741603</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1403584937445862</v>
+        <v>0.1813974769958739</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02317697996070739</v>
+        <v>0.02012349309620026</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2218172015.660177</v>
+        <v>2814906008.719212</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1147303712700738</v>
+        <v>0.107695730744614</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02229601701453618</v>
+        <v>0.02551420432933361</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1929726837.383484</v>
+        <v>1761947226.358919</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09800472399711822</v>
+        <v>0.07659322897616126</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03708963216647967</v>
+        <v>0.02909369110599705</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3620131349.279707</v>
+        <v>3210776435.129889</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1131814954174202</v>
+        <v>0.08748909273589994</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04090036158212033</v>
+        <v>0.04589778888971396</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1554932369.343961</v>
+        <v>1353884857.574622</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1538307339019247</v>
+        <v>0.134743787287357</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03848853796413633</v>
+        <v>0.04054143696941947</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2836733645.453644</v>
+        <v>3815269879.438004</v>
       </c>
       <c r="F24" t="n">
-        <v>0.118836089540932</v>
+        <v>0.1139021132012695</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03306563664645466</v>
+        <v>0.03338214243102314</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>928853209.7674087</v>
+        <v>904090895.2274685</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1103892960129353</v>
+        <v>0.1065185462434673</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02331034508976706</v>
+        <v>0.02930082595034551</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1395106485.971877</v>
+        <v>911698915.9561485</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1145797033461484</v>
+        <v>0.08609151484334318</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02535884732283235</v>
+        <v>0.03418152125993781</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3015045932.307895</v>
+        <v>3784618023.832085</v>
       </c>
       <c r="F27" t="n">
-        <v>0.104044303992657</v>
+        <v>0.09534542952372688</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01853116285490371</v>
+        <v>0.02281913937869214</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3532587083.468904</v>
+        <v>3722840749.530866</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1470097792142095</v>
+        <v>0.1512344098766283</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04970799844468277</v>
+        <v>0.03316821627332687</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,13 +1242,13 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5527398422.600406</v>
+        <v>5505937483.531967</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1011356310777902</v>
+        <v>0.1110748245731257</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03864130145871156</v>
+        <v>0.03151126100887091</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2127142643.605356</v>
+        <v>1758577045.035823</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1201651619555649</v>
+        <v>0.1016531660251229</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03366100530766231</v>
+        <v>0.03929526857240413</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1161831897.079417</v>
+        <v>1214428898.534646</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08996188614055188</v>
+        <v>0.09983771991549463</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03768757700850303</v>
+        <v>0.05097945555910341</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1883243059.613313</v>
+        <v>1865304285.889783</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1082418724805666</v>
+        <v>0.08926013653059289</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0289680047349963</v>
+        <v>0.02358077897905764</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2576249898.731805</v>
+        <v>2827257715.390697</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1458024873709158</v>
+        <v>0.2091235160311769</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04490939838260332</v>
+        <v>0.04294379917288017</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1383389030.910018</v>
+        <v>1544800115.721935</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1084062593661739</v>
+        <v>0.1006549302622985</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01760861506849899</v>
+        <v>0.02834402314232405</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1223148804.070976</v>
+        <v>899423012.5353383</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1154438408620191</v>
+        <v>0.07360928604790402</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04045527537782841</v>
+        <v>0.03946876400445795</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2313090241.017715</v>
+        <v>2462878931.137567</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1256399642450305</v>
+        <v>0.1676896958975886</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02662259732029011</v>
+        <v>0.02492960811155247</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2778794311.223401</v>
+        <v>2473095268.779073</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07967004475297934</v>
+        <v>0.1041667535712398</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03885305722609036</v>
+        <v>0.0402766974308098</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1408117025.536762</v>
+        <v>1991752961.367224</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08623548910713996</v>
+        <v>0.1150799356956961</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03721918990419258</v>
+        <v>0.03606398569041634</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1972481718.202359</v>
+        <v>1732247835.617433</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1658798766801425</v>
+        <v>0.1469980933004817</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02449078310077602</v>
+        <v>0.03127085546582194</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1559708040.455037</v>
+        <v>1445223144.924579</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1598727508938645</v>
+        <v>0.1049308776263308</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04145100267597947</v>
+        <v>0.0453067525804618</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1809161901.272319</v>
+        <v>2765286975.020238</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1305409465956804</v>
+        <v>0.1066079236488524</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03742345886411166</v>
+        <v>0.04247706035920624</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3388820175.74947</v>
+        <v>3428833974.178674</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07987543177237848</v>
+        <v>0.09640397833510839</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0442115029452303</v>
+        <v>0.04623561682013719</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2532040632.118198</v>
+        <v>2843363183.812479</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1965811799586212</v>
+        <v>0.1740415235063972</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02391869435696482</v>
+        <v>0.01901889161734815</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2255208224.378019</v>
+        <v>1651762893.598499</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08040994433443656</v>
+        <v>0.09798677635170219</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03648363053217699</v>
+        <v>0.02445083399157428</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2377163484.666422</v>
+        <v>1624212442.969944</v>
       </c>
       <c r="F45" t="n">
-        <v>0.13017162005067</v>
+        <v>0.1387521233012946</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03601113288665441</v>
+        <v>0.03685648396720266</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4252885194.603695</v>
+        <v>4582848611.550467</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1134011513931231</v>
+        <v>0.1163787523135882</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04368583948595448</v>
+        <v>0.05232107024543829</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4308872472.914371</v>
+        <v>3992256025.150045</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1398160656846678</v>
+        <v>0.1571203672328657</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03943752493799479</v>
+        <v>0.0493180097761394</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3275274467.530643</v>
+        <v>4285497840.915215</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07631387026908625</v>
+        <v>0.0985135661429159</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03773612177740715</v>
+        <v>0.02902300332543876</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1599551317.375987</v>
+        <v>1513540174.216772</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1596403484075219</v>
+        <v>0.1919873373262653</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04054100751273535</v>
+        <v>0.04092502391672026</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3107832179.223162</v>
+        <v>3821623150.901718</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1549164385154128</v>
+        <v>0.124993428562125</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04433540201154908</v>
+        <v>0.04037895764159062</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1144774044.735128</v>
+        <v>1144977605.77193</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1341666167443591</v>
+        <v>0.1652694160809338</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04013333883889547</v>
+        <v>0.04728188710350242</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3627362946.349504</v>
+        <v>5182677761.095047</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1149639504110991</v>
+        <v>0.1286304071312732</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06176648617075473</v>
+        <v>0.04346597882212862</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3384157053.715245</v>
+        <v>2385114573.213317</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1470698782224608</v>
+        <v>0.1695632472334277</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02683169106896758</v>
+        <v>0.03507870265928514</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3895827135.386092</v>
+        <v>4701430361.812326</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1426844890117662</v>
+        <v>0.1531743494718512</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04176594471219262</v>
+        <v>0.04029456863538274</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3028977254.848205</v>
+        <v>3428451606.485452</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1849873267393315</v>
+        <v>0.1919928347694096</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0305002108246492</v>
+        <v>0.02735460068103213</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1498188738.520042</v>
+        <v>1619021662.651445</v>
       </c>
       <c r="F56" t="n">
-        <v>0.116348049646336</v>
+        <v>0.1470466229587163</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04449466971201917</v>
+        <v>0.05283613016416869</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4237168568.347473</v>
+        <v>2954205517.992779</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1799280290865643</v>
+        <v>0.1377792991353577</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0205959729226092</v>
+        <v>0.02138695411464745</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1205570839.545015</v>
+        <v>1892765807.263537</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1307513086194877</v>
+        <v>0.1562356463463342</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03849199339461289</v>
+        <v>0.0361956888659223</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4578335999.473602</v>
+        <v>4140238893.197664</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1283817389300371</v>
+        <v>0.08231614142096566</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0381829237837027</v>
+        <v>0.04090527178073282</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,16 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3076189098.348602</v>
+        <v>2547114580.930226</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1900238396586679</v>
+        <v>0.1847394008752953</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03207380534336057</v>
+        <v>0.02787847755921825</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2338413886.245878</v>
+        <v>2523456697.355924</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1483112116386359</v>
+        <v>0.1215364961320494</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02261916694901229</v>
+        <v>0.02689672919634355</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1627366037.840816</v>
+        <v>2029462560.567493</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1776490438647778</v>
+        <v>0.1362379311458799</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03682418970286665</v>
+        <v>0.03643053220250546</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3840172863.786653</v>
+        <v>5289070015.175821</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08114618561235849</v>
+        <v>0.06639528593677861</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0325183307037023</v>
+        <v>0.04178301954505446</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4646253352.727419</v>
+        <v>4757498296.511735</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1441110823029668</v>
+        <v>0.185732450165092</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02947218066423191</v>
+        <v>0.02357353107662005</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4668907437.248766</v>
+        <v>3978232402.459156</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1180253722333316</v>
+        <v>0.1638189126019405</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02590273467511833</v>
+        <v>0.02427857410809029</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4965665534.736696</v>
+        <v>5235456206.616551</v>
       </c>
       <c r="F66" t="n">
-        <v>0.09863577828021519</v>
+        <v>0.1541531552070037</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03940903299196868</v>
+        <v>0.04378295954882605</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2546573335.120695</v>
+        <v>2375690629.66483</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07231171989446139</v>
+        <v>0.09415339749641165</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03287451433203234</v>
+        <v>0.03663806706466761</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3931122972.743369</v>
+        <v>4105365113.749369</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1563774107789127</v>
+        <v>0.1529184727157609</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03281077125207992</v>
+        <v>0.04752985511166289</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2077008722.166513</v>
+        <v>2472900722.618152</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1201767719666336</v>
+        <v>0.1609630048983483</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04431104483374623</v>
+        <v>0.04437860889753734</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3148719681.291544</v>
+        <v>2534851351.379692</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07473941534533925</v>
+        <v>0.1000186635644815</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04640612700272947</v>
+        <v>0.04780503516813473</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5215220373.356914</v>
+        <v>4402015194.631424</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1267689192926219</v>
+        <v>0.1764427463591845</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02146927485248345</v>
+        <v>0.02200927239885915</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1605529199.612822</v>
+        <v>1810946300.278779</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07379551705763492</v>
+        <v>0.09284162010428258</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03366126876117466</v>
+        <v>0.05017407908474077</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3449070055.046098</v>
+        <v>2281921086.761756</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07842177590897349</v>
+        <v>0.1034650499983237</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04633687472112698</v>
+        <v>0.04109582088986665</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2595810608.824922</v>
+        <v>3007474030.708102</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1365441227523605</v>
+        <v>0.165955978119557</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02483082675767778</v>
+        <v>0.02803250975415199</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1681847110.172569</v>
+        <v>2037595855.130111</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1490994129560568</v>
+        <v>0.1616318433527944</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02284379317772793</v>
+        <v>0.03415589458104254</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4425068979.641899</v>
+        <v>4666150527.211318</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1002136920785362</v>
+        <v>0.09151557417155559</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02170196859969794</v>
+        <v>0.02933486977464271</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1538177113.386804</v>
+        <v>1430238658.083478</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1586019652447596</v>
+        <v>0.1289258197419088</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02662222875526729</v>
+        <v>0.02021996112351333</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4589128132.518997</v>
+        <v>4612339146.792332</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1181223976852776</v>
+        <v>0.1187761530224582</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04934081353596459</v>
+        <v>0.04992321683416389</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1203826483.033467</v>
+        <v>1191441900.466836</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1698768281131801</v>
+        <v>0.1660392872210069</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03946539340580865</v>
+        <v>0.03936614922540561</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4512016763.717011</v>
+        <v>5040627758.799745</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08910947242184465</v>
+        <v>0.09137925296597303</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02563012164556974</v>
+        <v>0.02552669155379557</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5162671235.870831</v>
+        <v>4043616612.863338</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1217097822647916</v>
+        <v>0.09245326864131463</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02311868448463009</v>
+        <v>0.02419548373755217</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5132343111.721864</v>
+        <v>3519164592.371927</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1594939875729411</v>
+        <v>0.1467725251378259</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02610933875319905</v>
+        <v>0.02193182860722602</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2454055803.78276</v>
+        <v>1513480979.534231</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1349434912416769</v>
+        <v>0.100745222331444</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04052162948181545</v>
+        <v>0.03775836202328744</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1904113145.487096</v>
+        <v>2597060903.479417</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09310323587867815</v>
+        <v>0.07688326389082224</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03213635893152287</v>
+        <v>0.03435964623968875</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3138281418.59003</v>
+        <v>2392508172.259943</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1235503883821503</v>
+        <v>0.1837092279820315</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04397293775568641</v>
+        <v>0.04428722520032878</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1804964302.740509</v>
+        <v>1787358922.89585</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1365702183862501</v>
+        <v>0.1055319767295406</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02522209075058032</v>
+        <v>0.01828875389636997</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1146192930.543256</v>
+        <v>1040842408.381302</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1288759094249489</v>
+        <v>0.1607574117468886</v>
       </c>
       <c r="G87" t="n">
-        <v>0.044087824829056</v>
+        <v>0.03281845771891165</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2960958615.352421</v>
+        <v>2725304698.177174</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1366356645928329</v>
+        <v>0.1527377684715331</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03361338657116503</v>
+        <v>0.03796021670759989</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3127923299.999457</v>
+        <v>2572468749.78232</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1478095190628758</v>
+        <v>0.1160042912114787</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03541067257485779</v>
+        <v>0.03815456887289671</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2095744858.92967</v>
+        <v>2055263719.52731</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1077320969160456</v>
+        <v>0.09725090872393656</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04828911548653851</v>
+        <v>0.04025689249059876</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1715769572.253271</v>
+        <v>1705993658.923791</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1481353778316475</v>
+        <v>0.1555538940257603</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04091709701097695</v>
+        <v>0.0578721923088268</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1838803753.189031</v>
+        <v>3000394068.33114</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07384543021070183</v>
+        <v>0.09946230957535346</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04286403653114753</v>
+        <v>0.04579928421463889</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3166457483.846465</v>
+        <v>4364691499.145113</v>
       </c>
       <c r="F93" t="n">
-        <v>0.123706322309338</v>
+        <v>0.1006531269393912</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05433010119155701</v>
+        <v>0.03676312909824631</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1946436017.145552</v>
+        <v>1649121723.484185</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1091759000166715</v>
+        <v>0.1495904317131037</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04170830164423975</v>
+        <v>0.0307370801646085</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2840180620.519287</v>
+        <v>2470484852.098909</v>
       </c>
       <c r="F95" t="n">
-        <v>0.120042503746958</v>
+        <v>0.121325929539488</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04682067848944256</v>
+        <v>0.04920937378363856</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2262653438.258673</v>
+        <v>1633522877.462515</v>
       </c>
       <c r="F96" t="n">
-        <v>0.101650309678862</v>
+        <v>0.1343961870086696</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04372766758390157</v>
+        <v>0.03875151272917928</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4257214086.644017</v>
+        <v>3331888596.262239</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1386550168708496</v>
+        <v>0.1394309232752451</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02050407691103147</v>
+        <v>0.01766472586836055</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3885644425.198633</v>
+        <v>3539056584.971274</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1056211310309516</v>
+        <v>0.08849727307794793</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01978362175946544</v>
+        <v>0.0229342612114594</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2946835270.745677</v>
+        <v>2686529441.822937</v>
       </c>
       <c r="F99" t="n">
-        <v>0.111962979197698</v>
+        <v>0.1089528891398774</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02446437071392489</v>
+        <v>0.03207653210050733</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3998416117.970645</v>
+        <v>3296566536.978567</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1460154182518223</v>
+        <v>0.1089669857437759</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01796467021988176</v>
+        <v>0.02515938326168815</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2179467545.585077</v>
+        <v>3000058818.400058</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2028749685986846</v>
+        <v>0.1507179884035611</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04215454162916361</v>
+        <v>0.05194307667709044</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_108.xlsx
+++ b/output/fit_clients/fit_round_108.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1859082996.228596</v>
+        <v>2235957749.291452</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0944445668856186</v>
+        <v>0.07320956654773875</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03928583152401635</v>
+        <v>0.03253697647762319</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2371372713.40945</v>
+        <v>1981571576.22789</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1242806360678069</v>
+        <v>0.1673537870347389</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04756978179513412</v>
+        <v>0.04107219396881738</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5199211808.89794</v>
+        <v>5225745284.415967</v>
       </c>
       <c r="F4" t="n">
-        <v>0.102163917634091</v>
+        <v>0.1630502555384669</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03607161350583655</v>
+        <v>0.0358791586083279</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>66</v>
+      </c>
+      <c r="J4" t="n">
+        <v>108</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,16 +606,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3721340003.953233</v>
+        <v>3584486954.360413</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09131249231886014</v>
+        <v>0.1105957166470576</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03165056733294102</v>
+        <v>0.0442534804144197</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>46</v>
+      </c>
+      <c r="J5" t="n">
+        <v>107</v>
+      </c>
+      <c r="K5" t="n">
+        <v>124.1774653216538</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2003976378.128891</v>
+        <v>2364920081.02129</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1081639568356701</v>
+        <v>0.09923299504078517</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03962056469879384</v>
+        <v>0.05528997181430052</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2198923421.499374</v>
+        <v>2480157651.504064</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08331266163087793</v>
+        <v>0.1016723687425972</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04053451211326699</v>
+        <v>0.03704291270543831</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3199190542.296073</v>
+        <v>3732527379.604699</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1784355962147196</v>
+        <v>0.1375294948572109</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03048475478519582</v>
+        <v>0.020185821071194</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>29</v>
+      </c>
+      <c r="J8" t="n">
+        <v>108</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2035961375.029123</v>
+        <v>2249599436.705772</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1748324133573039</v>
+        <v>0.1798329861536913</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02735057443320085</v>
+        <v>0.03610710081871711</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4374408069.641069</v>
+        <v>5069642635.908053</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1582238972301061</v>
+        <v>0.1589275406103255</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04033068883604193</v>
+        <v>0.04437014010638352</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>99</v>
+      </c>
+      <c r="J10" t="n">
+        <v>108</v>
+      </c>
+      <c r="K10" t="n">
+        <v>174.6240816671061</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3250015821.648543</v>
+        <v>2801894633.002429</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1315466648898867</v>
+        <v>0.1354552538957076</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03840911029423474</v>
+        <v>0.03207704566441647</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>46</v>
+      </c>
+      <c r="J11" t="n">
+        <v>107</v>
+      </c>
+      <c r="K11" t="n">
+        <v>74.94681431680965</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2211567917.80206</v>
+        <v>3325407234.374947</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1291123602191311</v>
+        <v>0.1758309723943855</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03642962449330073</v>
+        <v>0.04982903979732565</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3578623513.251341</v>
+        <v>4233718824.391516</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09490697484399224</v>
+        <v>0.1010331436313207</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02938107824898392</v>
+        <v>0.02192592041266975</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>54</v>
+      </c>
+      <c r="J13" t="n">
+        <v>107</v>
+      </c>
+      <c r="K13" t="n">
+        <v>151.5431732663522</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2579215747.340794</v>
+        <v>3440965182.57278</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1830776260126945</v>
+        <v>0.1426476170054151</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0356051412349976</v>
+        <v>0.0318268631640798</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>21</v>
+      </c>
+      <c r="J14" t="n">
+        <v>104</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1615406771.717229</v>
+        <v>1418546806.191699</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1062699843294311</v>
+        <v>0.07784555159596057</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04339003679303073</v>
+        <v>0.03584668409235718</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2360592027.117216</v>
+        <v>2769727612.724276</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08551399805564815</v>
+        <v>0.116585650836411</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05084752267174541</v>
+        <v>0.03681962743761885</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1034,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5029803395.748918</v>
+        <v>4720558880.918608</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1244797989893497</v>
+        <v>0.1501271960996133</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0409952557006468</v>
+        <v>0.04333438451404339</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>52</v>
+      </c>
+      <c r="J17" t="n">
+        <v>107</v>
+      </c>
+      <c r="K17" t="n">
+        <v>140.1617960590837</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2762481792.912758</v>
+        <v>3059903387.629504</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1283374098279898</v>
+        <v>0.1123978621679529</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0326085075560423</v>
+        <v>0.02818510513046392</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>28</v>
+      </c>
+      <c r="J18" t="n">
+        <v>105</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1155681758.741603</v>
+        <v>1284327586.225194</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1813974769958739</v>
+        <v>0.1203395544066501</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02012349309620026</v>
+        <v>0.02186438730395005</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2814906008.719212</v>
+        <v>2625820253.701748</v>
       </c>
       <c r="F20" t="n">
-        <v>0.107695730744614</v>
+        <v>0.1406824839972146</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02551420432933361</v>
+        <v>0.02254461319313907</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1176,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1761947226.358919</v>
+        <v>1869782848.9973</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07659322897616126</v>
+        <v>0.08579233133673878</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02909369110599705</v>
+        <v>0.0308717555429061</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1205,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3210776435.129889</v>
+        <v>3834201130.960615</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08748909273589994</v>
+        <v>0.1210672733096359</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04589778888971396</v>
+        <v>0.05138575604219169</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>27</v>
+      </c>
+      <c r="J22" t="n">
+        <v>107</v>
+      </c>
+      <c r="K22" t="n">
+        <v>116.9517699034978</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1242,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1353884857.574622</v>
+        <v>1403996876.121422</v>
       </c>
       <c r="F23" t="n">
-        <v>0.134743787287357</v>
+        <v>0.1180547768445119</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04054143696941947</v>
+        <v>0.03525876422534604</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1277,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3815269879.438004</v>
+        <v>3863186619.626481</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1139021132012695</v>
+        <v>0.1433242875143796</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03338214243102314</v>
+        <v>0.03509174871815318</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>32</v>
+      </c>
+      <c r="J24" t="n">
+        <v>108</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>904090895.2274685</v>
+        <v>1099795107.920285</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1065185462434673</v>
+        <v>0.0942756610437452</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02930082595034551</v>
+        <v>0.03022107632947809</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>911698915.9561485</v>
+        <v>1028041796.726531</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08609151484334318</v>
+        <v>0.1143428506986776</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03418152125993781</v>
+        <v>0.03858464374201993</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1382,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3784618023.832085</v>
+        <v>4054796698.691302</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09534542952372688</v>
+        <v>0.1501009782570253</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02281913937869214</v>
+        <v>0.02722861559863106</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>42</v>
+      </c>
+      <c r="J27" t="n">
+        <v>108</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1417,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3722840749.530866</v>
+        <v>3182813233.014168</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1512344098766283</v>
+        <v>0.1463110659107057</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03316821627332687</v>
+        <v>0.0343681731299109</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>23</v>
+      </c>
+      <c r="J28" t="n">
+        <v>95</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5505937483.531967</v>
+        <v>5713838118.827435</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1110748245731257</v>
+        <v>0.147273395751352</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03151126100887091</v>
+        <v>0.03990058529330443</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>101</v>
+      </c>
+      <c r="J29" t="n">
+        <v>108</v>
+      </c>
+      <c r="K29" t="n">
+        <v>184.5723480784208</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1758577045.035823</v>
+        <v>2166354903.387053</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1016531660251229</v>
+        <v>0.09330840266007578</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03929526857240413</v>
+        <v>0.0366396876363554</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1214428898.534646</v>
+        <v>1378418564.662492</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09983771991549463</v>
+        <v>0.1087680399209121</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05097945555910341</v>
+        <v>0.0491290340846074</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1865304285.889783</v>
+        <v>1194376026.377077</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08926013653059289</v>
+        <v>0.08622350412855929</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02358077897905764</v>
+        <v>0.03764180079332139</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2827257715.390697</v>
+        <v>3011316856.813859</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2091235160311769</v>
+        <v>0.146319917397382</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04294379917288017</v>
+        <v>0.05894844996766565</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1544800115.721935</v>
+        <v>1418739327.868238</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1006549302622985</v>
+        <v>0.1189174559138747</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02834402314232405</v>
+        <v>0.02616873278180989</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>899423012.5353383</v>
+        <v>1275231459.456773</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07360928604790402</v>
+        <v>0.1113437473730497</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03946876400445795</v>
+        <v>0.04395071007164117</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2462878931.137567</v>
+        <v>2773104341.895852</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1676896958975886</v>
+        <v>0.1408576128124553</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02492960811155247</v>
+        <v>0.02634326254354644</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2473095268.779073</v>
+        <v>2581047476.400472</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1041667535712398</v>
+        <v>0.07594369713943389</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0402766974308098</v>
+        <v>0.03085147488269391</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1775,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1991752961.367224</v>
+        <v>1940324510.556912</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1150799356956961</v>
+        <v>0.08777753066473229</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03606398569041634</v>
+        <v>0.02728897532215597</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1732247835.617433</v>
+        <v>1591930787.349504</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1469980933004817</v>
+        <v>0.160621511434173</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03127085546582194</v>
+        <v>0.02145554912860771</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1445223144.924579</v>
+        <v>1144073801.029384</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1049308776263308</v>
+        <v>0.1314688234905825</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0453067525804618</v>
+        <v>0.05766136970454988</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1880,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2765286975.020238</v>
+        <v>2906891554.933622</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1066079236488524</v>
+        <v>0.1109873075368213</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04247706035920624</v>
+        <v>0.03795126637788582</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3428833974.178674</v>
+        <v>3371491414.868579</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09640397833510839</v>
+        <v>0.1134854489479426</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04623561682013719</v>
+        <v>0.04112651633055945</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>40</v>
+      </c>
+      <c r="J42" t="n">
+        <v>104</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2843363183.812479</v>
+        <v>2038678206.853486</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1740415235063972</v>
+        <v>0.1716751920179438</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01901889161734815</v>
+        <v>0.01580190104428553</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1651762893.598499</v>
+        <v>1856802320.496521</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09798677635170219</v>
+        <v>0.0938867474870181</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02445083399157428</v>
+        <v>0.03283565769146424</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2020,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1624212442.969944</v>
+        <v>2231164765.325827</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1387521233012946</v>
+        <v>0.1415622410389578</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03685648396720266</v>
+        <v>0.05083527477497237</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4582848611.550467</v>
+        <v>3864844563.640234</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1163787523135882</v>
+        <v>0.1648901358468426</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05232107024543829</v>
+        <v>0.04036824175240138</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>62</v>
+      </c>
+      <c r="J46" t="n">
+        <v>107</v>
+      </c>
+      <c r="K46" t="n">
+        <v>133.6720534257683</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3992256025.150045</v>
+        <v>4162038487.004989</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1571203672328657</v>
+        <v>0.1447675723181082</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0493180097761394</v>
+        <v>0.05385815787422989</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>47</v>
+      </c>
+      <c r="J47" t="n">
+        <v>108</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2121,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4285497840.915215</v>
+        <v>2997468793.783765</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0985135661429159</v>
+        <v>0.07370694860667669</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02902300332543876</v>
+        <v>0.03678592445662447</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>40</v>
+      </c>
+      <c r="J48" t="n">
+        <v>106</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1513540174.216772</v>
+        <v>1390410761.262585</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1919873373262653</v>
+        <v>0.1274928787213804</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04092502391672026</v>
+        <v>0.03502790682109301</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3821623150.901718</v>
+        <v>3877487587.852652</v>
       </c>
       <c r="F50" t="n">
-        <v>0.124993428562125</v>
+        <v>0.1486010336386683</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04037895764159062</v>
+        <v>0.04108191150785104</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>37</v>
+      </c>
+      <c r="J50" t="n">
+        <v>108</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2232,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1144977605.77193</v>
+        <v>1425916569.725217</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1652694160809338</v>
+        <v>0.1807901509106848</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04728188710350242</v>
+        <v>0.04640567463640328</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5182677761.095047</v>
+        <v>4311815650.951215</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1286304071312732</v>
+        <v>0.1343968028394278</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04346597882212862</v>
+        <v>0.04770659065691341</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>83</v>
+      </c>
+      <c r="J52" t="n">
+        <v>108</v>
+      </c>
+      <c r="K52" t="n">
+        <v>164.7855753885586</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2304,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2385114573.213317</v>
+        <v>3756091940.903158</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1695632472334277</v>
+        <v>0.1971222396010407</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03507870265928514</v>
+        <v>0.02976828229393883</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>11</v>
+      </c>
+      <c r="J53" t="n">
+        <v>108</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,17 +2339,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4701430361.812326</v>
+        <v>3942178191.389277</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1531743494718512</v>
+        <v>0.1492311139562278</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04029456863538274</v>
+        <v>0.03294002342892158</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>48</v>
+      </c>
+      <c r="J54" t="n">
+        <v>108</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,17 +2374,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3428451606.485452</v>
+        <v>3730728422.770212</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1919928347694096</v>
+        <v>0.1607368090567975</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02735460068103213</v>
+        <v>0.02232969872518305</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>49</v>
+      </c>
+      <c r="J55" t="n">
+        <v>108</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2409,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1619021662.651445</v>
+        <v>1723223830.143845</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1470466229587163</v>
+        <v>0.1527761514102776</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05283613016416869</v>
+        <v>0.03849617263297745</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2438,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2954205517.992779</v>
+        <v>4452396986.94436</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1377792991353577</v>
+        <v>0.1369028129245168</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02138695411464745</v>
+        <v>0.01692462590419133</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>41</v>
+      </c>
+      <c r="J57" t="n">
+        <v>108</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1892765807.263537</v>
+        <v>1608830407.562048</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1562356463463342</v>
+        <v>0.1654979237711125</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0361956888659223</v>
+        <v>0.03293686228109659</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2508,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4140238893.197664</v>
+        <v>4747454775.381705</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08231614142096566</v>
+        <v>0.1217773808468017</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04090527178073282</v>
+        <v>0.04249553737474596</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>52</v>
+      </c>
+      <c r="J59" t="n">
+        <v>108</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2543,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2547114580.930226</v>
+        <v>3532412255.712274</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1847394008752953</v>
+        <v>0.1731973215904632</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02787847755921825</v>
+        <v>0.02658375440184779</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>15</v>
+      </c>
+      <c r="J60" t="n">
+        <v>106</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2578,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2523456697.355924</v>
+        <v>2421375935.335193</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1215364961320494</v>
+        <v>0.1298202703532397</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02689672919634355</v>
+        <v>0.02191381890823856</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>79</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2613,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2029462560.567493</v>
+        <v>1605659882.15573</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1362379311458799</v>
+        <v>0.186689482460535</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03643053220250546</v>
+        <v>0.03787704463057563</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2648,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5289070015.175821</v>
+        <v>4888822600.907097</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06639528593677861</v>
+        <v>0.0906561518607841</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04178301954505446</v>
+        <v>0.03625142926251288</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>53</v>
+      </c>
+      <c r="J63" t="n">
+        <v>108</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2683,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4757498296.511735</v>
+        <v>5078354057.678881</v>
       </c>
       <c r="F64" t="n">
-        <v>0.185732450165092</v>
+        <v>0.1739977985750404</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02357353107662005</v>
+        <v>0.02543625804595835</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>53</v>
+      </c>
+      <c r="J64" t="n">
+        <v>108</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2718,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3978232402.459156</v>
+        <v>5000062492.048142</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1638189126019405</v>
+        <v>0.139173038483709</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02427857410809029</v>
+        <v>0.03016226576242799</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>89</v>
+      </c>
+      <c r="J65" t="n">
+        <v>108</v>
+      </c>
+      <c r="K65" t="n">
+        <v>162.9325477983912</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2761,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5235456206.616551</v>
+        <v>3686619261.148724</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1541531552070037</v>
+        <v>0.1529624550154714</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04378295954882605</v>
+        <v>0.03863195931485106</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>53</v>
+      </c>
+      <c r="J66" t="n">
+        <v>107</v>
+      </c>
+      <c r="K66" t="n">
+        <v>112.2990860661535</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2792,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2375690629.66483</v>
+        <v>2500656125.867772</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09415339749641165</v>
+        <v>0.0648268882428807</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03663806706466761</v>
+        <v>0.04790559076537886</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2827,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4105365113.749369</v>
+        <v>5053670736.961317</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1529184727157609</v>
+        <v>0.1418037534484007</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04752985511166289</v>
+        <v>0.03891735143730132</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>54</v>
+      </c>
+      <c r="J68" t="n">
+        <v>107</v>
+      </c>
+      <c r="K68" t="n">
+        <v>147.5504856690337</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2864,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2472900722.618152</v>
+        <v>1941350823.607552</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1609630048983483</v>
+        <v>0.1753483202040061</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04437860889753734</v>
+        <v>0.03842391415464082</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2899,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2534851351.379692</v>
+        <v>2380526155.778819</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1000186635644815</v>
+        <v>0.09120125773820324</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04780503516813473</v>
+        <v>0.03097722324413651</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>13</v>
+      </c>
+      <c r="J70" t="n">
+        <v>105</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2934,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4402015194.631424</v>
+        <v>4194362250.88569</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1764427463591845</v>
+        <v>0.1184090563425679</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02200927239885915</v>
+        <v>0.02727515717808593</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>88</v>
+      </c>
+      <c r="J71" t="n">
+        <v>107</v>
+      </c>
+      <c r="K71" t="n">
+        <v>159.1623520463532</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2977,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1810946300.278779</v>
+        <v>1538956594.662937</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09284162010428258</v>
+        <v>0.07090501296621569</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05017407908474077</v>
+        <v>0.03526811082520264</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3006,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2281921086.761756</v>
+        <v>2359448435.098862</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1034650499983237</v>
+        <v>0.09911514172117163</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04109582088986665</v>
+        <v>0.03905905191415244</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>7</v>
+      </c>
+      <c r="J73" t="n">
+        <v>98</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3047,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3007474030.708102</v>
+        <v>3819405860.318749</v>
       </c>
       <c r="F74" t="n">
-        <v>0.165955978119557</v>
+        <v>0.1668698015305559</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02803250975415199</v>
+        <v>0.0265628923974705</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>36</v>
+      </c>
+      <c r="J74" t="n">
+        <v>108</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3082,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2037595855.130111</v>
+        <v>2246904690.185614</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1616318433527944</v>
+        <v>0.165585351266838</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03415589458104254</v>
+        <v>0.02424498029450984</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3117,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4666150527.211318</v>
+        <v>4950583218.778371</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09151557417155559</v>
+        <v>0.1225997255363319</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02933486977464271</v>
+        <v>0.03164978422010678</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>50</v>
+      </c>
+      <c r="J76" t="n">
+        <v>107</v>
+      </c>
+      <c r="K76" t="n">
+        <v>128.7731644232015</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1430238658.083478</v>
+        <v>1931590592.603852</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1289258197419088</v>
+        <v>0.1855689011243577</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02021996112351333</v>
+        <v>0.02172799452578774</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3183,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4612339146.792332</v>
+        <v>3279581141.144471</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1187761530224582</v>
+        <v>0.1096684646251554</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04992321683416389</v>
+        <v>0.05368167000965756</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>54</v>
+      </c>
+      <c r="J78" t="n">
+        <v>107</v>
+      </c>
+      <c r="K78" t="n">
+        <v>97.85163768416515</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1191441900.466836</v>
+        <v>1793206704.577104</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1660392872210069</v>
+        <v>0.1141505467561086</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03936614922540561</v>
+        <v>0.02983602640807234</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5040627758.799745</v>
+        <v>5089547419.628646</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09137925296597303</v>
+        <v>0.07534520310261297</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02552669155379557</v>
+        <v>0.02750415264626765</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>52</v>
+      </c>
+      <c r="J80" t="n">
+        <v>107</v>
+      </c>
+      <c r="K80" t="n">
+        <v>118.1470584715675</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4043616612.863338</v>
+        <v>4567509343.653675</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09245326864131463</v>
+        <v>0.1135409225137282</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02419548373755217</v>
+        <v>0.02018796603369675</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>48</v>
+      </c>
+      <c r="J81" t="n">
+        <v>107</v>
+      </c>
+      <c r="K81" t="n">
+        <v>133.0453377907353</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3519164592.371927</v>
+        <v>5383301069.219734</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1467725251378259</v>
+        <v>0.1337350743224173</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02193182860722602</v>
+        <v>0.02954663634555551</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>72</v>
+      </c>
+      <c r="J82" t="n">
+        <v>108</v>
+      </c>
+      <c r="K82" t="n">
+        <v>166.7397279380874</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1513480979.534231</v>
+        <v>1528778358.120083</v>
       </c>
       <c r="F83" t="n">
-        <v>0.100745222331444</v>
+        <v>0.1544781043325751</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03775836202328744</v>
+        <v>0.03507344638588476</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2597060903.479417</v>
+        <v>2066491687.948942</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07688326389082224</v>
+        <v>0.1048339744837454</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03435964623968875</v>
+        <v>0.03725841753463504</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2392508172.259943</v>
+        <v>3389626250.558327</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1837092279820315</v>
+        <v>0.116245405207039</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04428722520032878</v>
+        <v>0.04341501149568545</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>19</v>
+      </c>
+      <c r="J85" t="n">
+        <v>106</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3477,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1787358922.89585</v>
+        <v>2190252289.627883</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1055319767295406</v>
+        <v>0.1063596680844128</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01828875389636997</v>
+        <v>0.02129106905894883</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1040842408.381302</v>
+        <v>1212660521.013787</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1607574117468886</v>
+        <v>0.1322462419484045</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03281845771891165</v>
+        <v>0.02907907516681179</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2725304698.177174</v>
+        <v>3617936271.731572</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1527377684715331</v>
+        <v>0.1536538370613899</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03796021670759989</v>
+        <v>0.03391925087839202</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>17</v>
+      </c>
+      <c r="J88" t="n">
+        <v>106</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2572468749.78232</v>
+        <v>2756383891.456606</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1160042912114787</v>
+        <v>0.1116465098174549</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03815456887289671</v>
+        <v>0.0375282889575967</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>10</v>
+      </c>
+      <c r="J89" t="n">
+        <v>97</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2055263719.52731</v>
+        <v>1663140006.493755</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09725090872393656</v>
+        <v>0.1313479697568457</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04025689249059876</v>
+        <v>0.04102775041258757</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3652,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1705993658.923791</v>
+        <v>1402211155.964473</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1555538940257603</v>
+        <v>0.1703030500423552</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0578721923088268</v>
+        <v>0.04929883471540908</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>3000394068.33114</v>
+        <v>2977973265.317972</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09946230957535346</v>
+        <v>0.1052890055002621</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04579928421463889</v>
+        <v>0.03044775224914663</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4364691499.145113</v>
+        <v>4104329072.044255</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1006531269393912</v>
+        <v>0.09531946656061759</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03676312909824631</v>
+        <v>0.0345658062388653</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>49</v>
+      </c>
+      <c r="J93" t="n">
+        <v>108</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1649121723.484185</v>
+        <v>1680224948.665612</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1495904317131037</v>
+        <v>0.1203156676939457</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0307370801646085</v>
+        <v>0.03398657544660613</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3792,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2470484852.098909</v>
+        <v>2425844180.589336</v>
       </c>
       <c r="F95" t="n">
-        <v>0.121325929539488</v>
+        <v>0.1364691340539062</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04920937378363856</v>
+        <v>0.0448830913783124</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1633522877.462515</v>
+        <v>2023895064.701224</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1343961870086696</v>
+        <v>0.107605841126345</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03875151272917928</v>
+        <v>0.02925210520429797</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3331888596.262239</v>
+        <v>3864824740.789497</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1394309232752451</v>
+        <v>0.1561619948529117</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01766472586836055</v>
+        <v>0.02521697036893014</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>52</v>
+      </c>
+      <c r="J97" t="n">
+        <v>107</v>
+      </c>
+      <c r="K97" t="n">
+        <v>130.1683497285435</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3539056584.971274</v>
+        <v>2776373243.560568</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08849727307794793</v>
+        <v>0.09335902118841483</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0229342612114594</v>
+        <v>0.02097311091440651</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>25</v>
+      </c>
+      <c r="J98" t="n">
+        <v>107</v>
+      </c>
+      <c r="K98" t="n">
+        <v>59.9273746335831</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2686529441.822937</v>
+        <v>2198306865.785978</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1089528891398774</v>
+        <v>0.1057473749464177</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03207653210050733</v>
+        <v>0.02881208334338406</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3296566536.978567</v>
+        <v>3060706364.042285</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1089669857437759</v>
+        <v>0.1333928391416984</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02515938326168815</v>
+        <v>0.02741463753588617</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>44</v>
+      </c>
+      <c r="J100" t="n">
+        <v>106</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3000058818.400058</v>
+        <v>3561011626.874162</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1507179884035611</v>
+        <v>0.2057540431344794</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05194307667709044</v>
+        <v>0.05549015912010988</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>6</v>
+      </c>
+      <c r="J101" t="n">
+        <v>103</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
